--- a/src/main/resources/static/files/Events.xlsx
+++ b/src/main/resources/static/files/Events.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rosalie Razonable\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9A6C0A-9920-4716-BBAD-D56A027F1EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826A0F95-8029-4BCF-80B6-1AB41F043709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="140" windowWidth="19200" windowHeight="10660" xr2:uid="{F406EA87-CD7E-4A2B-9FFD-AA248E4461BC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{F406EA87-CD7E-4A2B-9FFD-AA248E4461BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
-    <sheet name="Config" sheetId="4" r:id="rId2"/>
-    <sheet name="Events" sheetId="1" r:id="rId3"/>
-    <sheet name="Data Validation" sheetId="2" r:id="rId4"/>
+    <sheet name="eventType" sheetId="5" r:id="rId2"/>
+    <sheet name="Config" sheetId="4" r:id="rId3"/>
+    <sheet name="Events" sheetId="1" r:id="rId4"/>
+    <sheet name="Data Validation" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="82">
   <si>
     <t>Timestamp</t>
   </si>
@@ -279,6 +280,12 @@
   </si>
   <si>
     <t xml:space="preserve"> banner7</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>Paid</t>
   </si>
 </sst>
 </file>
@@ -1674,8 +1681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F68E40-F9AA-480C-A9CB-435BE77F7652}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1755,8 +1762,8 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
+      <c r="B2" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>52</v>
@@ -1808,8 +1815,8 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
+      <c r="B3" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>56</v>
@@ -1861,8 +1868,8 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>0</v>
+      <c r="B4" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>59</v>
@@ -1917,8 +1924,8 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
+      <c r="B5" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>61</v>
@@ -1970,8 +1977,8 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
+      <c r="B6" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>64</v>
@@ -2023,8 +2030,8 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>0</v>
+      <c r="B7" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>67</v>
@@ -2079,8 +2086,8 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
-        <v>0</v>
+      <c r="B8" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>70</v>
@@ -2139,6 +2146,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650A455F-8449-4C57-942D-AF30DBF2F9EA}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF82A0D-6FFB-487E-8BBF-4360CF91ADC1}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2173,7 +2211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7072C2-2C47-41B8-AA87-43B356AA23EA}">
   <dimension ref="B2:F26"/>
   <sheetViews>
@@ -2500,12 +2538,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B1A278-EAFC-491E-B865-B14F9EC34969}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>

--- a/src/main/resources/static/files/Events.xlsx
+++ b/src/main/resources/static/files/Events.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROSALIE\Internship\RDAK\excel-import-module\src\main\resources\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C30A114-8CA4-4AAC-8EC2-01F91534845E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62315AB7-AFB9-4C15-AAA8-7F7442B85BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" xr2:uid="{F406EA87-CD7E-4A2B-9FFD-AA248E4461BC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{F406EA87-CD7E-4A2B-9FFD-AA248E4461BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
-    <sheet name="eventType" sheetId="5" r:id="rId2"/>
-    <sheet name="Config" sheetId="4" r:id="rId3"/>
-    <sheet name="Events" sheetId="1" r:id="rId4"/>
-    <sheet name="Data Validation" sheetId="2" r:id="rId5"/>
+    <sheet name="isInternal" sheetId="7" r:id="rId2"/>
+    <sheet name="isDeleted" sheetId="6" r:id="rId3"/>
+    <sheet name="eventType" sheetId="5" r:id="rId4"/>
+    <sheet name="Config" sheetId="4" r:id="rId5"/>
+    <sheet name="Events" sheetId="1" r:id="rId6"/>
+    <sheet name="Data Validation" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="84">
   <si>
     <t>Timestamp</t>
   </si>
@@ -195,9 +197,6 @@
     <t>of type DATE instead of DATETIME</t>
   </si>
   <si>
-    <t xml:space="preserve">Table </t>
-  </si>
-  <si>
     <t>Weekend Ride</t>
   </si>
   <si>
@@ -286,6 +285,15 @@
   </si>
   <si>
     <t>banner7.jpg</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Table</t>
   </si>
 </sst>
 </file>
@@ -1681,8 +1689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F68E40-F9AA-480C-A9CB-435BE77F7652}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1763,16 +1771,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="F2" s="17">
         <v>44346.041666666664</v>
@@ -1798,17 +1806,17 @@
       <c r="M2" s="4">
         <v>1</v>
       </c>
-      <c r="N2" s="4">
-        <v>0</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0</v>
+      <c r="N2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="Q2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="78.5" customHeight="1">
@@ -1816,16 +1824,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="F3" s="17">
         <v>44367.041666666664</v>
@@ -1851,17 +1859,17 @@
       <c r="M3" s="4">
         <v>1</v>
       </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0</v>
+      <c r="N3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="74.5" customHeight="1">
@@ -1869,16 +1877,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="F4" s="17">
         <v>44351.791666666664</v>
@@ -1904,20 +1912,20 @@
       <c r="M4" s="4">
         <v>1</v>
       </c>
-      <c r="N4" s="4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4">
-        <v>0</v>
+      <c r="N4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="P4" s="4">
         <v>500</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="29">
@@ -1925,16 +1933,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="F5" s="17">
         <v>44412.5</v>
@@ -1960,17 +1968,17 @@
       <c r="M5" s="4">
         <v>1</v>
       </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4">
-        <v>1</v>
+      <c r="N5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="29">
@@ -1978,16 +1986,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="F6" s="17">
         <v>44412.4375</v>
@@ -2013,17 +2021,17 @@
       <c r="M6" s="4">
         <v>1</v>
       </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0</v>
+      <c r="N6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="29">
@@ -2031,16 +2039,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="F7" s="17">
         <v>44410.375</v>
@@ -2066,20 +2074,20 @@
       <c r="M7" s="4">
         <v>1</v>
       </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0</v>
+      <c r="N7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="P7" s="4">
         <v>200</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="29">
@@ -2087,16 +2095,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="F8" s="17">
         <v>44411.416666666664</v>
@@ -2122,20 +2130,20 @@
       <c r="M8" s="4">
         <v>1</v>
       </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4">
-        <v>1</v>
+      <c r="N8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="P8" s="4">
         <v>150</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2146,6 +2154,68 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7863791B-C492-4D12-B538-45EDC44D84D2}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2806BE-EEE1-4207-8A64-44C25404F0A3}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650A455F-8449-4C57-942D-AF30DBF2F9EA}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2157,7 +2227,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -2165,7 +2235,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2176,13 +2246,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF82A0D-6FFB-487E-8BBF-4360CF91ADC1}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -2192,7 +2260,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -2211,7 +2279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7072C2-2C47-41B8-AA87-43B356AA23EA}">
   <dimension ref="B2:F26"/>
   <sheetViews>
@@ -2538,7 +2606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B1A278-EAFC-491E-B865-B14F9EC34969}">
   <dimension ref="A1:G19"/>
   <sheetViews>
